--- a/action_and_avg_staytime [10, 10, 10, 10]  [15, 5, 15, 5] sys 2 trained gamma=0.95.xlsx
+++ b/action_and_avg_staytime [10, 10, 10, 10]  [15, 5, 15, 5] sys 2 trained gamma=0.95.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1625,16 +1625,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1658,10 +1658,10 @@
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -1673,16 +1673,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
         <v>1</v>
@@ -1694,82 +1694,82 @@
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX2" t="n">
         <v>1</v>
@@ -1778,19 +1778,19 @@
         <v>1</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE2" t="n">
         <v>1</v>
@@ -1805,10 +1805,10 @@
         <v>1</v>
       </c>
       <c r="BI2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK2" t="n">
         <v>0</v>
@@ -1823,16 +1823,16 @@
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS2" t="n">
         <v>1</v>
@@ -1844,16 +1844,16 @@
         <v>1</v>
       </c>
       <c r="BV2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ2" t="n">
         <v>0</v>
@@ -1865,16 +1865,16 @@
         <v>0</v>
       </c>
       <c r="CC2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG2" t="n">
         <v>1</v>
@@ -1886,10 +1886,10 @@
         <v>1</v>
       </c>
       <c r="CJ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL2" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="CO2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS2" t="n">
         <v>1</v>
@@ -1919,37 +1919,37 @@
         <v>1</v>
       </c>
       <c r="CU2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ2" t="n">
         <v>0</v>
       </c>
       <c r="DA2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF2" t="n">
         <v>1</v>
@@ -1958,19 +1958,19 @@
         <v>1</v>
       </c>
       <c r="DH2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DL2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM2" t="n">
         <v>1</v>
@@ -1979,55 +1979,55 @@
         <v>1</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU2" t="n">
         <v>1</v>
       </c>
       <c r="DV2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF2" t="n">
         <v>0</v>
@@ -2036,97 +2036,97 @@
         <v>0</v>
       </c>
       <c r="EH2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EL2" t="n">
         <v>1</v>
       </c>
       <c r="EM2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FB2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FF2" t="n">
         <v>1</v>
       </c>
       <c r="FG2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FH2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FK2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT2" t="n">
         <v>1</v>
@@ -2159,10 +2159,10 @@
         <v>1</v>
       </c>
       <c r="FW2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FX2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY2" t="n">
         <v>0</v>
@@ -2174,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="GB2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GC2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GD2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GE2" t="n">
         <v>1</v>
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="GJ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GK2" t="n">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GR2" t="n">
         <v>1</v>
@@ -2234,13 +2234,13 @@
         <v>1</v>
       </c>
       <c r="GV2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GW2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GX2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GY2" t="n">
         <v>0</v>
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="HD2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HE2" t="n">
         <v>1</v>
@@ -2276,7 +2276,7 @@
         <v>1</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HK2" t="n">
         <v>0</v>
@@ -2297,10 +2297,10 @@
         <v>0</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HS2" t="n">
         <v>1</v>
@@ -2318,16 +2318,16 @@
         <v>1</v>
       </c>
       <c r="HX2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HY2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HZ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB2" t="n">
         <v>0</v>
@@ -2339,19 +2339,19 @@
         <v>0</v>
       </c>
       <c r="IE2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IH2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ2" t="n">
         <v>1</v>
@@ -2363,28 +2363,28 @@
         <v>1</v>
       </c>
       <c r="IM2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IN2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IO2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IP2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IQ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IS2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IU2" t="n">
         <v>0</v>
@@ -2393,16 +2393,16 @@
         <v>0</v>
       </c>
       <c r="IW2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IX2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IY2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IZ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JA2" t="n">
         <v>1</v>
@@ -2414,19 +2414,19 @@
         <v>1</v>
       </c>
       <c r="JD2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JF2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JG2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JI2" t="n">
         <v>0</v>
@@ -2438,16 +2438,16 @@
         <v>0</v>
       </c>
       <c r="JL2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JM2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JN2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JO2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JP2" t="n">
         <v>1</v>
@@ -2462,13 +2462,13 @@
         <v>1</v>
       </c>
       <c r="JT2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JU2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JV2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JW2" t="n">
         <v>0</v>
@@ -2486,13 +2486,13 @@
         <v>0</v>
       </c>
       <c r="KB2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KC2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KD2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KE2" t="n">
         <v>1</v>
@@ -2510,22 +2510,22 @@
         <v>1</v>
       </c>
       <c r="KJ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KK2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KL2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KM2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KN2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KO2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KP2" t="n">
         <v>0</v>
@@ -2534,19 +2534,19 @@
         <v>0</v>
       </c>
       <c r="KR2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KS2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KT2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KU2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KV2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KW2" t="n">
         <v>1</v>
@@ -2561,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="LA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LB2" t="n">
         <v>0</v>
@@ -2582,16 +2582,16 @@
         <v>0</v>
       </c>
       <c r="LH2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LI2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LJ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LK2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LL2" t="n">
         <v>1</v>
@@ -2609,13 +2609,13 @@
         <v>1</v>
       </c>
       <c r="LQ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LR2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LS2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LT2" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="MH2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MI2" t="n">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="MX2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MY2" t="n">
         <v>0</v>
@@ -2729,10 +2729,10 @@
         <v>0</v>
       </c>
       <c r="NE2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NF2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NG2" t="n">
         <v>1</v>
@@ -2747,16 +2747,16 @@
         <v>1</v>
       </c>
       <c r="NK2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NL2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NM2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NN2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NO2" t="n">
         <v>0</v>
@@ -2765,43 +2765,43 @@
         <v>0</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NR2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NS2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NT2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NU2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NV2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NW2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NX2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NY2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NZ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OC2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OD2" t="n">
         <v>0</v>
@@ -2813,21 +2813,21 @@
         <v>0</v>
       </c>
       <c r="OG2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OH2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OI2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OJ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -2881,13 +2881,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>1</v>
@@ -2899,103 +2899,103 @@
         <v>1</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF3" t="n">
         <v>1</v>
@@ -3010,10 +3010,10 @@
         <v>1</v>
       </c>
       <c r="BJ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL3" t="n">
         <v>0</v>
@@ -3034,10 +3034,10 @@
         <v>0</v>
       </c>
       <c r="BR3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT3" t="n">
         <v>1</v>
@@ -3049,16 +3049,16 @@
         <v>1</v>
       </c>
       <c r="BW3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA3" t="n">
         <v>0</v>
@@ -3073,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH3" t="n">
         <v>1</v>
@@ -3091,10 +3091,10 @@
         <v>1</v>
       </c>
       <c r="CK3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM3" t="n">
         <v>0</v>
@@ -3109,13 +3109,13 @@
         <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT3" t="n">
         <v>1</v>
@@ -3127,16 +3127,16 @@
         <v>1</v>
       </c>
       <c r="CW3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA3" t="n">
         <v>0</v>
@@ -3145,16 +3145,16 @@
         <v>0</v>
       </c>
       <c r="DC3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG3" t="n">
         <v>1</v>
@@ -3163,136 +3163,136 @@
         <v>1</v>
       </c>
       <c r="DI3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DL3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV3" t="n">
         <v>1</v>
       </c>
       <c r="DW3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH3" t="n">
         <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EL3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA3" t="n">
         <v>0</v>
@@ -3301,16 +3301,16 @@
         <v>0</v>
       </c>
       <c r="FC3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FD3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG3" t="n">
         <v>1</v>
@@ -3319,19 +3319,19 @@
         <v>1</v>
       </c>
       <c r="FI3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FK3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN3" t="n">
         <v>0</v>
@@ -3349,10 +3349,10 @@
         <v>0</v>
       </c>
       <c r="FS3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU3" t="n">
         <v>1</v>
@@ -3364,10 +3364,10 @@
         <v>1</v>
       </c>
       <c r="FX3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FZ3" t="n">
         <v>0</v>
@@ -3424,13 +3424,13 @@
         <v>0</v>
       </c>
       <c r="GR3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GS3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GT3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GU3" t="n">
         <v>1</v>
@@ -3439,13 +3439,13 @@
         <v>1</v>
       </c>
       <c r="GW3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GX3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GY3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GZ3" t="n">
         <v>0</v>
@@ -3463,10 +3463,10 @@
         <v>0</v>
       </c>
       <c r="HE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HF3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HG3" t="n">
         <v>1</v>
@@ -3481,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="HK3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HL3" t="n">
         <v>0</v>
@@ -3526,13 +3526,13 @@
         <v>1</v>
       </c>
       <c r="HZ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC3" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="IH3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK3" t="n">
         <v>1</v>
@@ -3574,22 +3574,22 @@
         <v>1</v>
       </c>
       <c r="IP3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IQ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IS3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IU3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IV3" t="n">
         <v>0</v>
@@ -3601,13 +3601,13 @@
         <v>0</v>
       </c>
       <c r="IY3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IZ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JB3" t="n">
         <v>1</v>
@@ -3622,16 +3622,16 @@
         <v>1</v>
       </c>
       <c r="JF3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JG3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JI3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ3" t="n">
         <v>0</v>
@@ -3649,10 +3649,10 @@
         <v>0</v>
       </c>
       <c r="JO3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JP3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JQ3" t="n">
         <v>1</v>
@@ -3673,7 +3673,7 @@
         <v>1</v>
       </c>
       <c r="JW3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JX3" t="n">
         <v>0</v>
@@ -3697,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="KE3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KF3" t="n">
         <v>1</v>
@@ -3715,22 +3715,22 @@
         <v>1</v>
       </c>
       <c r="KK3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KL3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KM3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KN3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KO3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KP3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KQ3" t="n">
         <v>0</v>
@@ -3745,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="KU3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KV3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KW3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KX3" t="n">
         <v>1</v>
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="LK3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LL3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LM3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LN3" t="n">
         <v>1</v>
@@ -3817,10 +3817,10 @@
         <v>1</v>
       </c>
       <c r="LS3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LT3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LU3" t="n">
         <v>0</v>
@@ -3838,10 +3838,10 @@
         <v>0</v>
       </c>
       <c r="LZ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MB3" t="n">
         <v>1</v>
@@ -3889,10 +3889,10 @@
         <v>0</v>
       </c>
       <c r="MQ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MR3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MS3" t="n">
         <v>1</v>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="NG3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NH3" t="n">
         <v>1</v>
@@ -3952,16 +3952,16 @@
         <v>1</v>
       </c>
       <c r="NL3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NM3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NN3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NO3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NP3" t="n">
         <v>0</v>
@@ -3976,37 +3976,37 @@
         <v>0</v>
       </c>
       <c r="NT3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NU3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NV3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NW3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NX3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NY3" t="n">
         <v>1</v>
       </c>
       <c r="NZ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OE3" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="OJ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -4032,16 +4032,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -4071,7 +4071,7 @@
         <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -4086,13 +4086,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
         <v>1</v>
@@ -4104,103 +4104,103 @@
         <v>1</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4" t="n">
         <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG4" t="n">
         <v>1</v>
@@ -4218,7 +4218,7 @@
         <v>1</v>
       </c>
       <c r="BL4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM4" t="n">
         <v>0</v>
@@ -4239,13 +4239,13 @@
         <v>0</v>
       </c>
       <c r="BS4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV4" t="n">
         <v>1</v>
@@ -4257,13 +4257,13 @@
         <v>1</v>
       </c>
       <c r="BY4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB4" t="n">
         <v>0</v>
@@ -4278,13 +4278,13 @@
         <v>0</v>
       </c>
       <c r="CF4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI4" t="n">
         <v>1</v>
@@ -4296,13 +4296,13 @@
         <v>1</v>
       </c>
       <c r="CL4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO4" t="n">
         <v>0</v>
@@ -4314,13 +4314,13 @@
         <v>0</v>
       </c>
       <c r="CR4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU4" t="n">
         <v>1</v>
@@ -4335,13 +4335,13 @@
         <v>1</v>
       </c>
       <c r="CY4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB4" t="n">
         <v>0</v>
@@ -4350,16 +4350,16 @@
         <v>0</v>
       </c>
       <c r="DD4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DH4" t="n">
         <v>1</v>
@@ -4371,133 +4371,133 @@
         <v>1</v>
       </c>
       <c r="DK4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DL4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW4" t="n">
         <v>1</v>
       </c>
       <c r="DX4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EL4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV4" t="n">
         <v>1</v>
       </c>
       <c r="EW4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FB4" t="n">
         <v>0</v>
@@ -4506,16 +4506,16 @@
         <v>0</v>
       </c>
       <c r="FD4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FF4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FH4" t="n">
         <v>1</v>
@@ -4527,16 +4527,16 @@
         <v>1</v>
       </c>
       <c r="FK4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO4" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="FT4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FV4" t="n">
         <v>1</v>
@@ -4569,10 +4569,10 @@
         <v>1</v>
       </c>
       <c r="FY4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GA4" t="n">
         <v>0</v>
@@ -4611,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="GM4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GN4" t="n">
         <v>0</v>
@@ -4629,13 +4629,13 @@
         <v>0</v>
       </c>
       <c r="GS4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GT4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GU4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GV4" t="n">
         <v>1</v>
@@ -4647,16 +4647,16 @@
         <v>1</v>
       </c>
       <c r="GY4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GZ4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HA4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HB4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HC4" t="n">
         <v>0</v>
@@ -4668,10 +4668,10 @@
         <v>0</v>
       </c>
       <c r="HF4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HG4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HH4" t="n">
         <v>1</v>
@@ -4689,10 +4689,10 @@
         <v>1</v>
       </c>
       <c r="HM4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HN4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO4" t="n">
         <v>0</v>
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="HU4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV4" t="n">
         <v>1</v>
@@ -4734,10 +4734,10 @@
         <v>1</v>
       </c>
       <c r="IB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ID4" t="n">
         <v>0</v>
@@ -4755,16 +4755,16 @@
         <v>0</v>
       </c>
       <c r="II4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM4" t="n">
         <v>1</v>
@@ -4785,16 +4785,16 @@
         <v>1</v>
       </c>
       <c r="IS4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IU4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IV4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IW4" t="n">
         <v>0</v>
@@ -4806,13 +4806,13 @@
         <v>0</v>
       </c>
       <c r="IZ4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JA4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JB4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JC4" t="n">
         <v>1</v>
@@ -4833,13 +4833,13 @@
         <v>1</v>
       </c>
       <c r="JI4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL4" t="n">
         <v>0</v>
@@ -4854,10 +4854,10 @@
         <v>0</v>
       </c>
       <c r="JP4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JQ4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JR4" t="n">
         <v>1</v>
@@ -4881,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="JY4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JZ4" t="n">
         <v>0</v>
@@ -4902,10 +4902,10 @@
         <v>0</v>
       </c>
       <c r="KF4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KG4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KH4" t="n">
         <v>1</v>
@@ -4929,13 +4929,13 @@
         <v>1</v>
       </c>
       <c r="KO4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KP4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KQ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KR4" t="n">
         <v>0</v>
@@ -4950,13 +4950,13 @@
         <v>0</v>
       </c>
       <c r="KV4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KW4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KX4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KY4" t="n">
         <v>1</v>
@@ -4998,10 +4998,10 @@
         <v>0</v>
       </c>
       <c r="LL4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LM4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LN4" t="n">
         <v>1</v>
@@ -5043,10 +5043,10 @@
         <v>0</v>
       </c>
       <c r="MA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MC4" t="n">
         <v>1</v>
@@ -5073,7 +5073,7 @@
         <v>1</v>
       </c>
       <c r="MK4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ML4" t="n">
         <v>0</v>
@@ -5094,10 +5094,10 @@
         <v>0</v>
       </c>
       <c r="MR4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MS4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MT4" t="n">
         <v>1</v>
@@ -5124,7 +5124,7 @@
         <v>1</v>
       </c>
       <c r="NB4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NC4" t="n">
         <v>0</v>
@@ -5142,10 +5142,10 @@
         <v>0</v>
       </c>
       <c r="NH4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NJ4" t="n">
         <v>1</v>
@@ -5163,13 +5163,13 @@
         <v>1</v>
       </c>
       <c r="NO4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NP4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NQ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NR4" t="n">
         <v>0</v>
@@ -5181,19 +5181,19 @@
         <v>0</v>
       </c>
       <c r="NU4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NV4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NW4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NX4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NY4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NZ4" t="n">
         <v>1</v>
@@ -5205,16 +5205,16 @@
         <v>1</v>
       </c>
       <c r="OC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OD4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OF4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OG4" t="n">
         <v>0</v>
@@ -5237,16 +5237,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -5276,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -5297,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" t="n">
         <v>1</v>
@@ -5312,16 +5312,16 @@
         <v>1</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
         <v>0</v>
@@ -5330,31 +5330,31 @@
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
         <v>0</v>
@@ -5363,34 +5363,34 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC5" t="n">
         <v>0</v>
@@ -5399,13 +5399,13 @@
         <v>0</v>
       </c>
       <c r="BE5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH5" t="n">
         <v>1</v>
@@ -5447,10 +5447,10 @@
         <v>0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW5" t="n">
         <v>1</v>
@@ -5465,10 +5465,10 @@
         <v>1</v>
       </c>
       <c r="CA5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC5" t="n">
         <v>0</v>
@@ -5486,10 +5486,10 @@
         <v>0</v>
       </c>
       <c r="CH5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ5" t="n">
         <v>1</v>
@@ -5501,13 +5501,13 @@
         <v>1</v>
       </c>
       <c r="CM5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP5" t="n">
         <v>0</v>
@@ -5522,10 +5522,10 @@
         <v>0</v>
       </c>
       <c r="CT5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV5" t="n">
         <v>1</v>
@@ -5540,13 +5540,13 @@
         <v>1</v>
       </c>
       <c r="CZ5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
@@ -5561,10 +5561,10 @@
         <v>0</v>
       </c>
       <c r="DG5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DH5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI5" t="n">
         <v>1</v>
@@ -5576,133 +5576,133 @@
         <v>1</v>
       </c>
       <c r="DL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR5" t="n">
         <v>0</v>
       </c>
       <c r="DS5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DU5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX5" t="n">
         <v>1</v>
       </c>
       <c r="DY5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED5" t="n">
         <v>0</v>
       </c>
       <c r="EE5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP5" t="n">
         <v>0</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ER5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW5" t="n">
         <v>1</v>
       </c>
       <c r="EX5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FC5" t="n">
         <v>0</v>
@@ -5714,13 +5714,13 @@
         <v>0</v>
       </c>
       <c r="FF5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI5" t="n">
         <v>1</v>
@@ -5735,13 +5735,13 @@
         <v>1</v>
       </c>
       <c r="FM5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
@@ -5762,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="FV5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW5" t="n">
         <v>1</v>
@@ -5774,10 +5774,10 @@
         <v>1</v>
       </c>
       <c r="FZ5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GA5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GB5" t="n">
         <v>0</v>
@@ -5798,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="GH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GI5" t="n">
         <v>1</v>
@@ -5816,10 +5816,10 @@
         <v>1</v>
       </c>
       <c r="GN5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GO5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GP5" t="n">
         <v>0</v>
@@ -5834,16 +5834,16 @@
         <v>0</v>
       </c>
       <c r="GT5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GU5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GV5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GW5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GX5" t="n">
         <v>1</v>
@@ -5852,16 +5852,16 @@
         <v>1</v>
       </c>
       <c r="GZ5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HA5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HB5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HC5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD5" t="n">
         <v>0</v>
@@ -5873,13 +5873,13 @@
         <v>0</v>
       </c>
       <c r="HG5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HI5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HJ5" t="n">
         <v>1</v>
@@ -5894,10 +5894,10 @@
         <v>1</v>
       </c>
       <c r="HN5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HP5" t="n">
         <v>0</v>
@@ -5939,10 +5939,10 @@
         <v>1</v>
       </c>
       <c r="IC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ID5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IE5" t="n">
         <v>0</v>
@@ -5966,10 +5966,10 @@
         <v>0</v>
       </c>
       <c r="IL5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IN5" t="n">
         <v>1</v>
@@ -5990,16 +5990,16 @@
         <v>1</v>
       </c>
       <c r="IT5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IU5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IV5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IW5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IX5" t="n">
         <v>0</v>
@@ -6038,13 +6038,13 @@
         <v>1</v>
       </c>
       <c r="JJ5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JK5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM5" t="n">
         <v>0</v>
@@ -6086,7 +6086,7 @@
         <v>1</v>
       </c>
       <c r="JZ5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KA5" t="n">
         <v>0</v>
@@ -6134,13 +6134,13 @@
         <v>1</v>
       </c>
       <c r="KP5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KQ5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KR5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KS5" t="n">
         <v>0</v>
@@ -6209,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="LO5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LP5" t="n">
         <v>1</v>
@@ -6248,19 +6248,19 @@
         <v>0</v>
       </c>
       <c r="MB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MD5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ME5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MF5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MG5" t="n">
         <v>1</v>
@@ -6278,10 +6278,10 @@
         <v>1</v>
       </c>
       <c r="ML5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MM5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MN5" t="n">
         <v>0</v>
@@ -6299,16 +6299,16 @@
         <v>0</v>
       </c>
       <c r="MS5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MT5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MU5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MV5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MW5" t="n">
         <v>1</v>
@@ -6329,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="NC5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ND5" t="n">
         <v>0</v>
@@ -6350,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="NJ5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NK5" t="n">
         <v>1</v>
@@ -6368,13 +6368,13 @@
         <v>1</v>
       </c>
       <c r="NP5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NQ5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NR5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NS5" t="n">
         <v>0</v>
@@ -6389,16 +6389,16 @@
         <v>0</v>
       </c>
       <c r="NW5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NX5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NY5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NZ5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OA5" t="n">
         <v>1</v>
@@ -6413,13 +6413,13 @@
         <v>1</v>
       </c>
       <c r="OE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OF5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OG5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OH5" t="n">
         <v>0</v>
@@ -6433,1207 +6433,1207 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9333333333333335</v>
+        <v>2.3</v>
       </c>
       <c r="B6" t="n">
-        <v>3.05</v>
+        <v>3.625</v>
       </c>
       <c r="C6" t="n">
-        <v>6.049999999999999</v>
+        <v>4.899999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>7.339999999999999</v>
+        <v>7.899999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>8.899999999999999</v>
+        <v>9.62857142857143</v>
       </c>
       <c r="F6" t="n">
-        <v>10.35714285714286</v>
+        <v>11.2875</v>
       </c>
       <c r="G6" t="n">
-        <v>11.8875</v>
+        <v>9.975000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>10.55833333333334</v>
+        <v>12.975</v>
       </c>
       <c r="I6" t="n">
-        <v>11.74285714285715</v>
+        <v>13.89285714285714</v>
       </c>
       <c r="J6" t="n">
-        <v>13.82666666666667</v>
+        <v>16.89285714285714</v>
       </c>
       <c r="K6" t="n">
-        <v>14.27777777777778</v>
+        <v>19.89285714285714</v>
       </c>
       <c r="L6" t="n">
-        <v>15.50555555555555</v>
+        <v>20.47142857142857</v>
       </c>
       <c r="M6" t="n">
-        <v>17.54210526315789</v>
+        <v>17.22666666666667</v>
       </c>
       <c r="N6" t="n">
-        <v>19.60999999999999</v>
+        <v>18.98125</v>
       </c>
       <c r="O6" t="n">
-        <v>19.6095238095238</v>
+        <v>19.75625</v>
       </c>
       <c r="P6" t="n">
-        <v>20.91904761904761</v>
+        <v>16.94705882352941</v>
       </c>
       <c r="Q6" t="n">
-        <v>21.52272727272727</v>
+        <v>17.44666666666667</v>
       </c>
       <c r="R6" t="n">
-        <v>22.59999999999999</v>
+        <v>15.33125</v>
       </c>
       <c r="S6" t="n">
-        <v>23.36190476190475</v>
+        <v>14.53333333333333</v>
       </c>
       <c r="T6" t="n">
-        <v>23.34</v>
+        <v>15.65</v>
       </c>
       <c r="U6" t="n">
-        <v>22.95714285714285</v>
+        <v>16.88</v>
       </c>
       <c r="V6" t="n">
-        <v>22.95</v>
+        <v>17.56</v>
       </c>
       <c r="W6" t="n">
-        <v>23.19523809523809</v>
+        <v>19.42105263157895</v>
       </c>
       <c r="X6" t="n">
-        <v>25.04</v>
+        <v>19.445</v>
       </c>
       <c r="Y6" t="n">
-        <v>26.73333333333333</v>
+        <v>20.06842105263158</v>
       </c>
       <c r="Z6" t="n">
-        <v>27.00555555555555</v>
+        <v>20.24444444444444</v>
       </c>
       <c r="AA6" t="n">
-        <v>25.97368421052631</v>
+        <v>21.03</v>
       </c>
       <c r="AB6" t="n">
-        <v>24.93</v>
+        <v>21.37368421052632</v>
       </c>
       <c r="AC6" t="n">
-        <v>24.83157894736842</v>
+        <v>21.99444444444445</v>
       </c>
       <c r="AD6" t="n">
-        <v>25.22631578947369</v>
+        <v>21.96842105263158</v>
       </c>
       <c r="AE6" t="n">
-        <v>28.22631578947369</v>
+        <v>22.15789473684211</v>
       </c>
       <c r="AF6" t="n">
-        <v>28.26666666666667</v>
+        <v>23.03157894736842</v>
       </c>
       <c r="AG6" t="n">
-        <v>27.13157894736842</v>
+        <v>24.62222222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>25.86666666666667</v>
+        <v>24.83888888888889</v>
       </c>
       <c r="AI6" t="n">
-        <v>24.01764705882353</v>
+        <v>25.38888888888889</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23.18333333333333</v>
+        <v>24.28421052631579</v>
       </c>
       <c r="AK6" t="n">
-        <v>24.47222222222222</v>
+        <v>23.61111111111111</v>
       </c>
       <c r="AL6" t="n">
-        <v>25.93529411764706</v>
+        <v>22.75882352941177</v>
       </c>
       <c r="AM6" t="n">
-        <v>27.6125</v>
+        <v>22.40625</v>
       </c>
       <c r="AN6" t="n">
-        <v>27.92857142857143</v>
+        <v>22.98125</v>
       </c>
       <c r="AO6" t="n">
-        <v>28.92</v>
+        <v>21.99999999999999</v>
       </c>
       <c r="AP6" t="n">
-        <v>26.29375</v>
+        <v>22.18666666666666</v>
       </c>
       <c r="AQ6" t="n">
-        <v>24.36666666666667</v>
+        <v>22.97333333333333</v>
       </c>
       <c r="AR6" t="n">
-        <v>22.6625</v>
+        <v>22.24</v>
       </c>
       <c r="AS6" t="n">
-        <v>22.96428571428572</v>
+        <v>19.60588235294118</v>
       </c>
       <c r="AT6" t="n">
-        <v>21.18666666666667</v>
+        <v>17.11764705882353</v>
       </c>
       <c r="AU6" t="n">
-        <v>18.70666666666666</v>
+        <v>18.04117647058823</v>
       </c>
       <c r="AV6" t="n">
-        <v>18.63076923076923</v>
+        <v>19.75625</v>
       </c>
       <c r="AW6" t="n">
-        <v>17.29285714285714</v>
+        <v>17.32352941176471</v>
       </c>
       <c r="AX6" t="n">
-        <v>19.11333333333334</v>
+        <v>16.45625</v>
       </c>
       <c r="AY6" t="n">
-        <v>20.04285714285714</v>
+        <v>19.45625</v>
       </c>
       <c r="AZ6" t="n">
-        <v>21.68666666666667</v>
+        <v>22.45625</v>
       </c>
       <c r="BA6" t="n">
-        <v>22.88571428571429</v>
+        <v>22.46875</v>
       </c>
       <c r="BB6" t="n">
-        <v>20.5</v>
+        <v>22.76666666666667</v>
       </c>
       <c r="BC6" t="n">
-        <v>19.175</v>
+        <v>21.45555555555556</v>
       </c>
       <c r="BD6" t="n">
-        <v>19.34375</v>
+        <v>21.97222222222222</v>
       </c>
       <c r="BE6" t="n">
+        <v>22.66111111111111</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>21.91052631578947</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>21.47222222222222</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>22.14375</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>19.74375</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>18.86666666666667</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>20.675</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>22.99333333333333</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>21.54666666666666</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>21.68571428571428</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>21.88125</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>19.3125</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>19.14117647058824</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>20.91666666666667</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>21.31176470588236</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>22.84666666666667</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>21.12352941176471</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>20.05555555555556</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>21.9421052631579</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>22.18421052631579</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>20.06315789473685</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>20.06666666666667</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>20.0578947368421</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>20.93333333333333</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>21.62857142857143</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>21.58636363636364</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>21.41904761904762</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>22.24761904761905</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>22.445</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>23.00526315789474</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>22.545</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>24.35238095238096</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>21.86363636363637</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>22.11904761904762</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>21.115</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>23.26842105263158</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>20.91578947368421</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>21.67368421052632</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>22.27368421052632</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>22</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>19.68695652173913</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>19.116</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>19.575</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>18.70416666666667</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>19.20434782608696</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>19.25652173913044</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>20.13913043478261</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>19.9952380952381</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>21.00952380952381</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>20.60454545454546</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>21.79090909090909</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>22.51428571428571</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>23.86666666666666</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>26.70526315789473</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>27.18125</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>27.02777777777778</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>25.11875</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>26.51333333333333</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>23.48235294117647</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>22.15625</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>21.99285714285715</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>22.07142857142858</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>20.50000000000001</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>20.90000000000001</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>22.49375000000001</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>22.31250000000001</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>19.81111111111112</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>18.5764705882353</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>19.23529411764707</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>19.39375</v>
+      </c>
+      <c r="DZ6" t="n">
         <v>21.64666666666667</v>
       </c>
-      <c r="BF6" t="n">
-        <v>23.13125</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>21.67333333333333</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>21.28125</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>21.2125</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>18.44375</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>20.24117647058823</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>18.46315789473685</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>17.76666666666667</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>16.11052631578947</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>19.11052631578947</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>19.35</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>21.14736842105264</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>20.65000000000001</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>20.43333333333334</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>20.60454545454546</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>21.755</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>22.02631578947368</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>23.86</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>24.695</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>24.55714285714285</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>23.04761904761904</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>21.87142857142857</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>22.105</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>23.45</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>25.98421052631578</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>25.67222222222222</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>22.25238095238095</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>22.48095238095238</v>
-      </c>
-      <c r="CH6" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="CI6" t="n">
-        <v>23.62631578947369</v>
-      </c>
-      <c r="CJ6" t="n">
-        <v>24.54117647058824</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>24.78421052631579</v>
-      </c>
-      <c r="CL6" t="n">
-        <v>24.82941176470588</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>24.00555555555556</v>
-      </c>
-      <c r="CN6" t="n">
-        <v>23.37894736842105</v>
-      </c>
-      <c r="CO6" t="n">
-        <v>22.745</v>
-      </c>
-      <c r="CP6" t="n">
-        <v>23.55555555555556</v>
-      </c>
-      <c r="CQ6" t="n">
-        <v>22.03684210526316</v>
-      </c>
-      <c r="CR6" t="n">
-        <v>21.95</v>
-      </c>
-      <c r="CS6" t="n">
-        <v>21.11904761904761</v>
-      </c>
-      <c r="CT6" t="n">
-        <v>22.02857142857142</v>
-      </c>
-      <c r="CU6" t="n">
-        <v>20.11904761904762</v>
-      </c>
-      <c r="CV6" t="n">
-        <v>19.84545454545454</v>
-      </c>
-      <c r="CW6" t="n">
-        <v>21.24999999999999</v>
-      </c>
-      <c r="CX6" t="n">
-        <v>23.30434782608695</v>
-      </c>
-      <c r="CY6" t="n">
-        <v>23.99565217391304</v>
-      </c>
-      <c r="CZ6" t="n">
-        <v>23.85416666666666</v>
-      </c>
-      <c r="DA6" t="n">
-        <v>23.96521739130434</v>
-      </c>
-      <c r="DB6" t="n">
-        <v>23.42173913043478</v>
-      </c>
-      <c r="DC6" t="n">
-        <v>25.41249999999999</v>
-      </c>
-      <c r="DD6" t="n">
-        <v>27.63181818181818</v>
-      </c>
-      <c r="DE6" t="n">
-        <v>27.63809523809523</v>
-      </c>
-      <c r="DF6" t="n">
-        <v>25.25499999999999</v>
-      </c>
-      <c r="DG6" t="n">
-        <v>24.61428571428571</v>
-      </c>
-      <c r="DH6" t="n">
-        <v>25.0578947368421</v>
-      </c>
-      <c r="DI6" t="n">
-        <v>26.65555555555555</v>
-      </c>
-      <c r="DJ6" t="n">
-        <v>23.20999999999999</v>
-      </c>
-      <c r="DK6" t="n">
-        <v>23.40499999999999</v>
-      </c>
-      <c r="DL6" t="n">
-        <v>24.035</v>
-      </c>
-      <c r="DM6" t="n">
-        <v>23.15238095238095</v>
-      </c>
-      <c r="DN6" t="n">
-        <v>22.585</v>
-      </c>
-      <c r="DO6" t="n">
-        <v>20.01739130434782</v>
-      </c>
-      <c r="DP6" t="n">
-        <v>22.07916666666666</v>
-      </c>
-      <c r="DQ6" t="n">
-        <v>21.53333333333333</v>
-      </c>
-      <c r="DR6" t="n">
-        <v>23.33913043478261</v>
-      </c>
-      <c r="DS6" t="n">
-        <v>25.21818181818182</v>
-      </c>
-      <c r="DT6" t="n">
-        <v>21.80833333333333</v>
-      </c>
-      <c r="DU6" t="n">
-        <v>24.41739130434783</v>
-      </c>
-      <c r="DV6" t="n">
-        <v>24.025</v>
-      </c>
-      <c r="DW6" t="n">
-        <v>23.13076923076922</v>
-      </c>
-      <c r="DX6" t="n">
-        <v>22.08518518518519</v>
-      </c>
-      <c r="DY6" t="n">
-        <v>24.62307692307692</v>
-      </c>
-      <c r="DZ6" t="n">
-        <v>26.00416666666667</v>
-      </c>
       <c r="EA6" t="n">
-        <v>25.06428571428572</v>
+        <v>23.1875</v>
       </c>
       <c r="EB6" t="n">
-        <v>26.77037037037037</v>
+        <v>24.63333333333334</v>
       </c>
       <c r="EC6" t="n">
-        <v>27.684</v>
+        <v>21.24705882352941</v>
       </c>
       <c r="ED6" t="n">
-        <v>26.816</v>
+        <v>24.24705882352941</v>
       </c>
       <c r="EE6" t="n">
-        <v>26.93846153846154</v>
+        <v>22</v>
       </c>
       <c r="EF6" t="n">
-        <v>25.77916666666666</v>
+        <v>21.68</v>
       </c>
       <c r="EG6" t="n">
-        <v>24.53333333333334</v>
+        <v>21.10909090909091</v>
       </c>
       <c r="EH6" t="n">
-        <v>24.45200000000001</v>
+        <v>19.73636363636363</v>
       </c>
       <c r="EI6" t="n">
-        <v>25.63600000000001</v>
+        <v>19.84782608695652</v>
       </c>
       <c r="EJ6" t="n">
-        <v>23.97692307692309</v>
+        <v>20.66086956521739</v>
       </c>
       <c r="EK6" t="n">
-        <v>25.53750000000001</v>
+        <v>21.63478260869565</v>
       </c>
       <c r="EL6" t="n">
-        <v>25.716</v>
+        <v>22.29047619047619</v>
       </c>
       <c r="EM6" t="n">
-        <v>25.50384615384616</v>
+        <v>21.825</v>
       </c>
       <c r="EN6" t="n">
-        <v>25.208</v>
+        <v>19.92608695652174</v>
       </c>
       <c r="EO6" t="n">
-        <v>27.02916666666667</v>
+        <v>22.075</v>
       </c>
       <c r="EP6" t="n">
-        <v>24.74</v>
+        <v>21.94615384615384</v>
       </c>
       <c r="EQ6" t="n">
-        <v>24.47083333333333</v>
+        <v>23.26153846153846</v>
       </c>
       <c r="ER6" t="n">
-        <v>24.0125</v>
+        <v>24.75</v>
       </c>
       <c r="ES6" t="n">
-        <v>25.996</v>
+        <v>25.37200000000001</v>
       </c>
       <c r="ET6" t="n">
-        <v>24.18846153846154</v>
+        <v>25.2875</v>
       </c>
       <c r="EU6" t="n">
-        <v>24.548</v>
+        <v>23.72962962962963</v>
       </c>
       <c r="EV6" t="n">
-        <v>23.09230769230769</v>
+        <v>23.05517241379311</v>
       </c>
       <c r="EW6" t="n">
-        <v>23.38518518518518</v>
+        <v>23.39642857142858</v>
       </c>
       <c r="EX6" t="n">
-        <v>25.06296296296296</v>
+        <v>23.68518518518519</v>
       </c>
       <c r="EY6" t="n">
-        <v>25.44285714285715</v>
+        <v>21.95769230769232</v>
       </c>
       <c r="EZ6" t="n">
-        <v>24.41428571428572</v>
+        <v>21.47692307692308</v>
       </c>
       <c r="FA6" t="n">
-        <v>24.15185185185186</v>
+        <v>22.67307692307691</v>
       </c>
       <c r="FB6" t="n">
-        <v>23.81153846153846</v>
+        <v>24.924</v>
       </c>
       <c r="FC6" t="n">
-        <v>24.96785714285715</v>
+        <v>26.57199999999999</v>
       </c>
       <c r="FD6" t="n">
-        <v>26.00384615384615</v>
+        <v>27.612</v>
       </c>
       <c r="FE6" t="n">
-        <v>25.51153846153846</v>
+        <v>26.61111111111111</v>
       </c>
       <c r="FF6" t="n">
-        <v>25.92222222222222</v>
+        <v>27.62692307692307</v>
       </c>
       <c r="FG6" t="n">
-        <v>25.03333333333333</v>
+        <v>27.41851851851852</v>
       </c>
       <c r="FH6" t="n">
-        <v>24.45925925925926</v>
+        <v>27.79642857142857</v>
       </c>
       <c r="FI6" t="n">
-        <v>24.95714285714286</v>
+        <v>26.81923076923077</v>
       </c>
       <c r="FJ6" t="n">
-        <v>23.86206896551724</v>
+        <v>26.74074074074074</v>
       </c>
       <c r="FK6" t="n">
-        <v>25.3103448275862</v>
+        <v>24.61785714285714</v>
       </c>
       <c r="FL6" t="n">
-        <v>27.22857142857143</v>
+        <v>25.69615384615384</v>
       </c>
       <c r="FM6" t="n">
-        <v>25.52068965517241</v>
+        <v>25.14230769230769</v>
       </c>
       <c r="FN6" t="n">
-        <v>25.76785714285714</v>
+        <v>24.1</v>
       </c>
       <c r="FO6" t="n">
-        <v>26.24814814814814</v>
+        <v>23.55000000000001</v>
       </c>
       <c r="FP6" t="n">
-        <v>25.98518518518518</v>
+        <v>25.62400000000001</v>
       </c>
       <c r="FQ6" t="n">
-        <v>26.29642857142856</v>
+        <v>24.31111111111112</v>
       </c>
       <c r="FR6" t="n">
-        <v>27.03199999999999</v>
+        <v>23.74814814814815</v>
       </c>
       <c r="FS6" t="n">
-        <v>27.54399999999999</v>
+        <v>24.12692307692308</v>
       </c>
       <c r="FT6" t="n">
-        <v>26.97916666666666</v>
+        <v>24.97037037037038</v>
       </c>
       <c r="FU6" t="n">
-        <v>28.93043478260869</v>
+        <v>25.87777777777779</v>
       </c>
       <c r="FV6" t="n">
-        <v>29.10454545454544</v>
+        <v>25.16551724137932</v>
       </c>
       <c r="FW6" t="n">
-        <v>29.88181818181817</v>
+        <v>25.57857142857144</v>
       </c>
       <c r="FX6" t="n">
-        <v>28.55909090909089</v>
+        <v>25.94137931034484</v>
       </c>
       <c r="FY6" t="n">
-        <v>26.90416666666665</v>
+        <v>25.14074074074075</v>
       </c>
       <c r="FZ6" t="n">
-        <v>26.36086956521738</v>
+        <v>25.37692307692309</v>
       </c>
       <c r="GA6" t="n">
-        <v>24.95199999999999</v>
+        <v>27.34444444444446</v>
       </c>
       <c r="GB6" t="n">
-        <v>23.59599999999999</v>
+        <v>27.06666666666668</v>
       </c>
       <c r="GC6" t="n">
-        <v>23.60416666666666</v>
+        <v>26.16666666666668</v>
       </c>
       <c r="GD6" t="n">
-        <v>22.59583333333333</v>
+        <v>26.17857142857144</v>
       </c>
       <c r="GE6" t="n">
-        <v>20.4391304347826</v>
+        <v>27.47857142857144</v>
       </c>
       <c r="GF6" t="n">
-        <v>20.56249999999999</v>
+        <v>27.8925925925926</v>
       </c>
       <c r="GG6" t="n">
-        <v>19.80416666666666</v>
+        <v>25.60689655172415</v>
       </c>
       <c r="GH6" t="n">
-        <v>20.564</v>
+        <v>27.7</v>
       </c>
       <c r="GI6" t="n">
-        <v>23.11666666666666</v>
+        <v>28.4344827586207</v>
       </c>
       <c r="GJ6" t="n">
-        <v>21.99583333333333</v>
+        <v>27.13000000000001</v>
       </c>
       <c r="GK6" t="n">
-        <v>23.22692307692308</v>
+        <v>28.36000000000001</v>
       </c>
       <c r="GL6" t="n">
-        <v>23.27407407407407</v>
+        <v>26.41724137931035</v>
       </c>
       <c r="GM6" t="n">
-        <v>23.02592592592593</v>
+        <v>26.76333333333334</v>
       </c>
       <c r="GN6" t="n">
-        <v>24.27777777777778</v>
+        <v>26.48620689655173</v>
       </c>
       <c r="GO6" t="n">
-        <v>25.30769230769231</v>
+        <v>26.32142857142858</v>
       </c>
       <c r="GP6" t="n">
-        <v>26.26538461538462</v>
+        <v>27.53461538461539</v>
       </c>
       <c r="GQ6" t="n">
-        <v>29.26538461538462</v>
+        <v>28.22000000000001</v>
       </c>
       <c r="GR6" t="n">
-        <v>28.28846153846154</v>
+        <v>28.95833333333334</v>
       </c>
       <c r="GS6" t="n">
-        <v>27.56153846153847</v>
+        <v>29.15200000000001</v>
       </c>
       <c r="GT6" t="n">
-        <v>29.17916666666667</v>
+        <v>28.43076923076924</v>
       </c>
       <c r="GU6" t="n">
-        <v>31.57391304347827</v>
+        <v>26.42592592592593</v>
       </c>
       <c r="GV6" t="n">
-        <v>32.66190476190476</v>
+        <v>27.724</v>
       </c>
       <c r="GW6" t="n">
-        <v>31.23636363636364</v>
+        <v>27.23703703703704</v>
       </c>
       <c r="GX6" t="n">
-        <v>32.81739130434783</v>
+        <v>27.89259259259259</v>
       </c>
       <c r="GY6" t="n">
-        <v>33.98095238095239</v>
+        <v>27.73846153846154</v>
       </c>
       <c r="GZ6" t="n">
-        <v>30.94000000000001</v>
+        <v>28.82307692307692</v>
       </c>
       <c r="HA6" t="n">
-        <v>32.08333333333334</v>
+        <v>26.68148148148148</v>
       </c>
       <c r="HB6" t="n">
-        <v>28.66111111111112</v>
+        <v>25.88846153846154</v>
       </c>
       <c r="HC6" t="n">
-        <v>26.2625</v>
+        <v>24.40833333333333</v>
       </c>
       <c r="HD6" t="n">
-        <v>27.48</v>
+        <v>22.216</v>
       </c>
       <c r="HE6" t="n">
-        <v>25.3125</v>
+        <v>21.45</v>
       </c>
       <c r="HF6" t="n">
-        <v>28.3125</v>
+        <v>21.92000000000001</v>
       </c>
       <c r="HG6" t="n">
-        <v>24.99444444444445</v>
+        <v>23.312</v>
       </c>
       <c r="HH6" t="n">
-        <v>24.02105263157895</v>
+        <v>23.03076923076923</v>
       </c>
       <c r="HI6" t="n">
-        <v>22.07</v>
+        <v>23.55925925925926</v>
       </c>
       <c r="HJ6" t="n">
-        <v>23.92380952380953</v>
+        <v>23.69615384615385</v>
       </c>
       <c r="HK6" t="n">
-        <v>21.68571428571429</v>
+        <v>23.94074074074074</v>
       </c>
       <c r="HL6" t="n">
-        <v>23.57500000000001</v>
+        <v>23.95714285714286</v>
       </c>
       <c r="HM6" t="n">
-        <v>23.34761904761905</v>
+        <v>24.44074074074074</v>
       </c>
       <c r="HN6" t="n">
-        <v>24.10869565217392</v>
+        <v>24.75384615384615</v>
       </c>
       <c r="HO6" t="n">
-        <v>23.21363636363636</v>
+        <v>24.15416666666666</v>
       </c>
       <c r="HP6" t="n">
-        <v>22.185</v>
+        <v>23.99583333333332</v>
       </c>
       <c r="HQ6" t="n">
-        <v>21.55714285714285</v>
+        <v>25.36249999999999</v>
       </c>
       <c r="HR6" t="n">
-        <v>23.26</v>
+        <v>22.74999999999999</v>
       </c>
       <c r="HS6" t="n">
-        <v>21.85454545454545</v>
+        <v>22.62608695652173</v>
       </c>
       <c r="HT6" t="n">
-        <v>23.25</v>
+        <v>23.77199999999999</v>
       </c>
       <c r="HU6" t="n">
-        <v>24.10909090909091</v>
+        <v>25.75</v>
       </c>
       <c r="HV6" t="n">
-        <v>24.53809523809523</v>
+        <v>25.5391304347826</v>
       </c>
       <c r="HW6" t="n">
-        <v>26.755</v>
+        <v>23.54166666666666</v>
       </c>
       <c r="HX6" t="n">
-        <v>27.18636363636363</v>
+        <v>24.15199999999999</v>
       </c>
       <c r="HY6" t="n">
-        <v>27.54347826086957</v>
+        <v>25.93333333333333</v>
       </c>
       <c r="HZ6" t="n">
-        <v>29.21818181818182</v>
+        <v>27.87391304347826</v>
       </c>
       <c r="IA6" t="n">
-        <v>30.635</v>
+        <v>27.34090909090909</v>
       </c>
       <c r="IB6" t="n">
-        <v>27.96818181818182</v>
+        <v>27.24285714285714</v>
       </c>
       <c r="IC6" t="n">
-        <v>28.39583333333333</v>
+        <v>26.2095238095238</v>
       </c>
       <c r="ID6" t="n">
-        <v>29.84090909090909</v>
+        <v>28.36999999999999</v>
       </c>
       <c r="IE6" t="n">
-        <v>27.625</v>
+        <v>28.43499999999999</v>
       </c>
       <c r="IF6" t="n">
-        <v>27.08400000000001</v>
+        <v>27.45238095238095</v>
       </c>
       <c r="IG6" t="n">
-        <v>26.12916666666667</v>
+        <v>25.51428571428571</v>
       </c>
       <c r="IH6" t="n">
-        <v>26.46666666666667</v>
+        <v>26.05217391304348</v>
       </c>
       <c r="II6" t="n">
-        <v>26.03200000000001</v>
+        <v>25.61818181818181</v>
       </c>
       <c r="IJ6" t="n">
-        <v>25.81538461538462</v>
+        <v>25.57619047619047</v>
       </c>
       <c r="IK6" t="n">
-        <v>26.55000000000001</v>
+        <v>22.29565217391304</v>
       </c>
       <c r="IL6" t="n">
-        <v>27.74166666666667</v>
+        <v>22.78260869565218</v>
       </c>
       <c r="IM6" t="n">
-        <v>27.33600000000001</v>
+        <v>24.38695652173913</v>
       </c>
       <c r="IN6" t="n">
-        <v>28.52</v>
+        <v>25.80454545454545</v>
       </c>
       <c r="IO6" t="n">
-        <v>29.35925925925926</v>
+        <v>26.24090909090909</v>
       </c>
       <c r="IP6" t="n">
-        <v>29.43076923076924</v>
+        <v>24.04782608695652</v>
       </c>
       <c r="IQ6" t="n">
-        <v>30.0888888888889</v>
+        <v>26.13181818181818</v>
       </c>
       <c r="IR6" t="n">
-        <v>29.66153846153847</v>
+        <v>26.15217391304348</v>
       </c>
       <c r="IS6" t="n">
-        <v>27.97857142857143</v>
+        <v>27.2</v>
       </c>
       <c r="IT6" t="n">
-        <v>27.41428571428572</v>
+        <v>28.24285714285714</v>
       </c>
       <c r="IU6" t="n">
-        <v>29.05185185185185</v>
+        <v>27.64</v>
       </c>
       <c r="IV6" t="n">
-        <v>29.9</v>
+        <v>27.2</v>
       </c>
       <c r="IW6" t="n">
-        <v>28.69310344827587</v>
+        <v>30.2</v>
       </c>
       <c r="IX6" t="n">
-        <v>30.75357142857143</v>
+        <v>30.36842105263158</v>
       </c>
       <c r="IY6" t="n">
-        <v>31.20000000000001</v>
+        <v>30.47368421052632</v>
       </c>
       <c r="IZ6" t="n">
-        <v>30.89285714285715</v>
+        <v>28.31578947368421</v>
       </c>
       <c r="JA6" t="n">
-        <v>31.40000000000001</v>
+        <v>26.63684210526316</v>
       </c>
       <c r="JB6" t="n">
-        <v>33.0925925925926</v>
+        <v>25.12631578947368</v>
       </c>
       <c r="JC6" t="n">
-        <v>32.46071428571429</v>
+        <v>24.36818181818182</v>
       </c>
       <c r="JD6" t="n">
-        <v>32.58148148148149</v>
+        <v>24.27727272727273</v>
       </c>
       <c r="JE6" t="n">
-        <v>35.14615384615385</v>
+        <v>23.33478260869565</v>
       </c>
       <c r="JF6" t="n">
-        <v>34.17777777777778</v>
+        <v>22.492</v>
       </c>
       <c r="JG6" t="n">
-        <v>35.90000000000001</v>
+        <v>23.775</v>
       </c>
       <c r="JH6" t="n">
-        <v>35.02758620689656</v>
+        <v>22.75</v>
       </c>
       <c r="JI6" t="n">
-        <v>36.15555555555557</v>
+        <v>24.12916666666667</v>
       </c>
       <c r="JJ6" t="n">
-        <v>36.2423076923077</v>
+        <v>22.76666666666667</v>
       </c>
       <c r="JK6" t="n">
-        <v>38.08333333333334</v>
+        <v>23.71363636363636</v>
       </c>
       <c r="JL6" t="n">
-        <v>36.64000000000001</v>
+        <v>22.93913043478261</v>
       </c>
       <c r="JM6" t="n">
-        <v>38.21538461538462</v>
+        <v>24.97916666666667</v>
       </c>
       <c r="JN6" t="n">
-        <v>35.56923076923077</v>
+        <v>25.50833333333333</v>
       </c>
       <c r="JO6" t="n">
-        <v>33.232</v>
+        <v>26.55</v>
       </c>
       <c r="JP6" t="n">
-        <v>34.70416666666667</v>
+        <v>26.00833333333333</v>
       </c>
       <c r="JQ6" t="n">
-        <v>31.91666666666667</v>
+        <v>26.65652173913043</v>
       </c>
       <c r="JR6" t="n">
-        <v>31</v>
+        <v>27.64090909090909</v>
       </c>
       <c r="JS6" t="n">
-        <v>30.12222222222222</v>
+        <v>25.775</v>
       </c>
       <c r="JT6" t="n">
-        <v>28.14285714285715</v>
+        <v>27.71599999999999</v>
       </c>
       <c r="JU6" t="n">
-        <v>29.25925925925926</v>
+        <v>27.11999999999999</v>
       </c>
       <c r="JV6" t="n">
-        <v>31.57307692307693</v>
+        <v>27.61739130434782</v>
       </c>
       <c r="JW6" t="n">
-        <v>31.6</v>
+        <v>27.06666666666666</v>
       </c>
       <c r="JX6" t="n">
-        <v>30.892</v>
+        <v>26.27391304347826</v>
       </c>
       <c r="JY6" t="n">
-        <v>30.35416666666667</v>
+        <v>25.96363636363636</v>
       </c>
       <c r="JZ6" t="n">
-        <v>30.636</v>
+        <v>25.9095238095238</v>
       </c>
       <c r="KA6" t="n">
-        <v>29.63846153846155</v>
+        <v>25.99999999999999</v>
       </c>
       <c r="KB6" t="n">
-        <v>29.24583333333334</v>
+        <v>24.87727272727272</v>
       </c>
       <c r="KC6" t="n">
-        <v>27.97826086956522</v>
+        <v>26.66521739130434</v>
       </c>
       <c r="KD6" t="n">
-        <v>29.95</v>
+        <v>27.04545454545454</v>
       </c>
       <c r="KE6" t="n">
-        <v>28.31666666666667</v>
+        <v>26.74782608695652</v>
       </c>
       <c r="KF6" t="n">
-        <v>27.77916666666667</v>
+        <v>29.01363636363636</v>
       </c>
       <c r="KG6" t="n">
-        <v>28.024</v>
+        <v>26.60869565217391</v>
       </c>
       <c r="KH6" t="n">
-        <v>28.08076923076923</v>
+        <v>25.968</v>
       </c>
       <c r="KI6" t="n">
-        <v>28.996</v>
+        <v>27.00869565217391</v>
       </c>
       <c r="KJ6" t="n">
-        <v>29.74444444444444</v>
+        <v>28.77083333333333</v>
       </c>
       <c r="KK6" t="n">
-        <v>31.02</v>
+        <v>29</v>
       </c>
       <c r="KL6" t="n">
-        <v>34.02</v>
+        <v>27.05</v>
       </c>
       <c r="KM6" t="n">
-        <v>33.75833333333333</v>
+        <v>28.5</v>
       </c>
       <c r="KN6" t="n">
-        <v>33.62916666666666</v>
+        <v>26.63809523809524</v>
       </c>
       <c r="KO6" t="n">
-        <v>33.62499999999999</v>
+        <v>26.26</v>
       </c>
       <c r="KP6" t="n">
-        <v>32.19583333333333</v>
+        <v>28.54210526315789</v>
       </c>
       <c r="KQ6" t="n">
-        <v>33.52173913043477</v>
+        <v>26.955</v>
       </c>
       <c r="KR6" t="n">
-        <v>30.79199999999999</v>
+        <v>27.03</v>
       </c>
       <c r="KS6" t="n">
-        <v>30.5076923076923</v>
+        <v>30.03</v>
       </c>
       <c r="KT6" t="n">
-        <v>31.18888888888888</v>
+        <v>30.035</v>
       </c>
       <c r="KU6" t="n">
-        <v>30.36153846153845</v>
+        <v>31.75789473684211</v>
       </c>
       <c r="KV6" t="n">
-        <v>29.4074074074074</v>
+        <v>31.26666666666667</v>
       </c>
       <c r="KW6" t="n">
-        <v>28.73571428571427</v>
+        <v>30.08947368421053</v>
       </c>
       <c r="KX6" t="n">
-        <v>29.18571428571428</v>
+        <v>30.59473684210527</v>
       </c>
       <c r="KY6" t="n">
-        <v>28.22666666666665</v>
+        <v>28.81</v>
       </c>
       <c r="KZ6" t="n">
-        <v>27.37666666666665</v>
+        <v>28.95</v>
       </c>
       <c r="LA6" t="n">
-        <v>26.65666666666665</v>
+        <v>26.6125</v>
       </c>
       <c r="LB6" t="n">
-        <v>27.34666666666665</v>
+        <v>26.95</v>
       </c>
       <c r="LC6" t="n">
-        <v>29.8758620689655</v>
+        <v>24.7875</v>
       </c>
       <c r="LD6" t="n">
-        <v>29.43333333333332</v>
+        <v>24.30400000000001</v>
       </c>
       <c r="LE6" t="n">
-        <v>28.33666666666666</v>
+        <v>22.7</v>
       </c>
       <c r="LF6" t="n">
-        <v>27.71785714285713</v>
+        <v>24.86666666666667</v>
       </c>
       <c r="LG6" t="n">
-        <v>28.06296296296295</v>
+        <v>26.76363636363637</v>
       </c>
       <c r="LH6" t="n">
-        <v>29.05599999999999</v>
+        <v>26.52272727272728</v>
       </c>
       <c r="LI6" t="n">
-        <v>28.1111111111111</v>
+        <v>27.87142857142857</v>
       </c>
       <c r="LJ6" t="n">
-        <v>28.34999999999999</v>
+        <v>29.52272727272728</v>
       </c>
       <c r="LK6" t="n">
-        <v>28.6111111111111</v>
+        <v>27.15416666666667</v>
       </c>
       <c r="LL6" t="n">
-        <v>30.50714285714285</v>
+        <v>27.57083333333334</v>
       </c>
       <c r="LM6" t="n">
-        <v>31.37777777777778</v>
+        <v>25.64400000000001</v>
       </c>
       <c r="LN6" t="n">
-        <v>33.796</v>
+        <v>25.47600000000001</v>
       </c>
       <c r="LO6" t="n">
-        <v>33.51923076923077</v>
+        <v>24.38000000000001</v>
       </c>
       <c r="LP6" t="n">
-        <v>35.944</v>
+        <v>25.51111111111112</v>
       </c>
       <c r="LQ6" t="n">
-        <v>34.33076923076923</v>
+        <v>26.61200000000001</v>
       </c>
       <c r="LR6" t="n">
-        <v>36.02962962962963</v>
+        <v>27.80869565217392</v>
       </c>
       <c r="LS6" t="n">
-        <v>37.37307692307692</v>
+        <v>26.84545454545455</v>
       </c>
       <c r="LT6" t="n">
-        <v>36.00740740740741</v>
+        <v>28.46190476190477</v>
       </c>
       <c r="LU6" t="n">
-        <v>35.93461538461538</v>
+        <v>28.83809523809525</v>
       </c>
       <c r="LV6" t="n">
-        <v>38.988</v>
+        <v>29.26666666666667</v>
       </c>
       <c r="LW6" t="n">
-        <v>37.42307692307692</v>
+        <v>31.12500000000001</v>
       </c>
       <c r="LX6" t="n">
-        <v>37.59583333333333</v>
+        <v>30.90000000000001</v>
       </c>
       <c r="LY6" t="n">
-        <v>36.34782608695652</v>
+        <v>29.17000000000001</v>
       </c>
       <c r="LZ6" t="n">
-        <v>38.7090909090909</v>
+        <v>30.75238095238096</v>
       </c>
       <c r="MA6" t="n">
-        <v>38.8</v>
+        <v>31.38095238095238</v>
       </c>
       <c r="MB6" t="n">
-        <v>38.91818181818181</v>
+        <v>30.50454545454545</v>
       </c>
       <c r="MC6" t="n">
-        <v>38.07391304347825</v>
+        <v>31.48</v>
       </c>
       <c r="MD6" t="n">
-        <v>35.65652173913043</v>
+        <v>29.395</v>
       </c>
       <c r="ME6" t="n">
-        <v>37.07916666666666</v>
+        <v>30.54444444444444</v>
       </c>
       <c r="MF6" t="n">
-        <v>37.85652173913042</v>
+        <v>26.77</v>
       </c>
       <c r="MG6" t="n">
-        <v>38.44761904761903</v>
+        <v>28.40000000000001</v>
       </c>
       <c r="MH6" t="n">
-        <v>37.54999999999998</v>
+        <v>28.18571428571429</v>
       </c>
       <c r="MI6" t="n">
-        <v>38.64285714285712</v>
+        <v>28.12857142857143</v>
       </c>
       <c r="MJ6" t="n">
-        <v>36.27727272727271</v>
+        <v>26.235</v>
       </c>
       <c r="MK6" t="n">
-        <v>36.2090909090909</v>
+        <v>24.2</v>
       </c>
       <c r="ML6" t="n">
-        <v>36.34999999999999</v>
+        <v>23.07272727272728</v>
       </c>
       <c r="MM6" t="n">
-        <v>31.24782608695651</v>
+        <v>25.03333333333334</v>
       </c>
       <c r="MN6" t="n">
-        <v>34.2</v>
+        <v>24.88636363636364</v>
       </c>
       <c r="MO6" t="n">
-        <v>31.81739130434782</v>
+        <v>23.47826086956523</v>
       </c>
       <c r="MP6" t="n">
-        <v>31.06521739130434</v>
+        <v>21.575</v>
       </c>
       <c r="MQ6" t="n">
-        <v>30.43478260869564</v>
+        <v>24.575</v>
       </c>
       <c r="MR6" t="n">
-        <v>29.86363636363636</v>
+        <v>24.424</v>
       </c>
       <c r="MS6" t="n">
-        <v>32.22857142857142</v>
+        <v>24.05</v>
       </c>
       <c r="MT6" t="n">
-        <v>33.69047619047618</v>
+        <v>23.41250000000001</v>
       </c>
       <c r="MU6" t="n">
-        <v>31.44999999999999</v>
+        <v>23.18750000000002</v>
       </c>
       <c r="MV6" t="n">
-        <v>31.61666666666665</v>
+        <v>23.74400000000002</v>
       </c>
       <c r="MW6" t="n">
-        <v>29.06153846153844</v>
+        <v>23.81250000000002</v>
       </c>
       <c r="MX6" t="n">
-        <v>29.11923076923075</v>
+        <v>26.81250000000002</v>
       </c>
       <c r="MY6" t="n">
-        <v>30.44399999999998</v>
+        <v>25.84583333333335</v>
       </c>
       <c r="MZ6" t="n">
-        <v>29.31999999999999</v>
+        <v>23.67826086956523</v>
       </c>
       <c r="NA6" t="n">
-        <v>29.524</v>
+        <v>24.58260869565219</v>
       </c>
       <c r="NB6" t="n">
-        <v>31.56666666666666</v>
+        <v>24.55909090909093</v>
       </c>
       <c r="NC6" t="n">
-        <v>31.90454545454545</v>
+        <v>24.08636363636365</v>
       </c>
       <c r="ND6" t="n">
-        <v>29.95416666666667</v>
+        <v>26.52857142857145</v>
       </c>
       <c r="NE6" t="n">
-        <v>31.38260869565218</v>
+        <v>26.63333333333334</v>
       </c>
       <c r="NF6" t="n">
-        <v>29.05217391304348</v>
+        <v>25.5318181818182</v>
       </c>
       <c r="NG6" t="n">
-        <v>29.26086956521739</v>
+        <v>27.41304347826088</v>
       </c>
       <c r="NH6" t="n">
-        <v>27.284</v>
+        <v>27.9</v>
       </c>
       <c r="NI6" t="n">
-        <v>26.54399999999999</v>
+        <v>28.53913043478261</v>
       </c>
       <c r="NJ6" t="n">
-        <v>27.90399999999999</v>
+        <v>29.45714285714285</v>
       </c>
       <c r="NK6" t="n">
-        <v>30.14583333333333</v>
+        <v>29.1090909090909</v>
       </c>
       <c r="NL6" t="n">
-        <v>30.7576923076923</v>
+        <v>29.57272727272727</v>
       </c>
       <c r="NM6" t="n">
-        <v>29.83703703703702</v>
+        <v>28.73043478260869</v>
       </c>
       <c r="NN6" t="n">
-        <v>31.6642857142857</v>
+        <v>28.20454545454545</v>
       </c>
       <c r="NO6" t="n">
-        <v>31.04074074074073</v>
+        <v>27.81304347826087</v>
       </c>
       <c r="NP6" t="n">
-        <v>30.00370370370369</v>
+        <v>25.98095238095239</v>
       </c>
       <c r="NQ6" t="n">
-        <v>31.59999999999999</v>
+        <v>26.68095238095239</v>
       </c>
       <c r="NR6" t="n">
-        <v>31.94799999999999</v>
+        <v>25.36818181818182</v>
       </c>
       <c r="NS6" t="n">
-        <v>32.28333333333333</v>
+        <v>25.53500000000001</v>
       </c>
       <c r="NT6" t="n">
-        <v>29.84583333333333</v>
+        <v>26.0818181818182</v>
       </c>
       <c r="NU6" t="n">
-        <v>30.025</v>
+        <v>25.54347826086959</v>
       </c>
       <c r="NV6" t="n">
-        <v>30.20416666666666</v>
+        <v>23.56250000000003</v>
       </c>
       <c r="NW6" t="n">
-        <v>30.77499999999999</v>
+        <v>24.7666666666667</v>
       </c>
       <c r="NX6" t="n">
-        <v>31.64999999999999</v>
+        <v>25.05000000000003</v>
       </c>
       <c r="NY6" t="n">
-        <v>31.78260869565216</v>
+        <v>25.67600000000002</v>
       </c>
       <c r="NZ6" t="n">
-        <v>30.53199999999999</v>
+        <v>27.24166666666669</v>
       </c>
       <c r="OA6" t="n">
-        <v>30.34615384615384</v>
+        <v>26.36521739130438</v>
       </c>
       <c r="OB6" t="n">
-        <v>31.48846153846153</v>
+        <v>25.16521739130437</v>
       </c>
       <c r="OC6" t="n">
-        <v>31.22399999999999</v>
+        <v>25.20454545454549</v>
       </c>
       <c r="OD6" t="n">
-        <v>30.71785714285713</v>
+        <v>25.14347826086959</v>
       </c>
       <c r="OE6" t="n">
-        <v>28.81333333333332</v>
+        <v>24.03913043478263</v>
       </c>
       <c r="OF6" t="n">
-        <v>29.08214285714285</v>
+        <v>24.20000000000001</v>
       </c>
       <c r="OG6" t="n">
-        <v>28.43333333333333</v>
+        <v>23.86086956521741</v>
       </c>
       <c r="OH6" t="n">
-        <v>30.31428571428571</v>
+        <v>24.78800000000002</v>
       </c>
       <c r="OI6" t="n">
-        <v>30.29230769230769</v>
+        <v>24.91153846153848</v>
       </c>
       <c r="OJ6" t="n">
-        <v>29.552</v>
+        <v>24.88000000000002</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>